--- a/Findings/Findings.xlsx
+++ b/Findings/Findings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\TLS-pinning-analysis-android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\TLS-pinning-analysis-android\Findings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA98218-0027-418E-9087-F1DD8A206D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD81DD8-BD45-46D2-B780-DFBA1331F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="504" windowWidth="21000" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="পত্রক1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>1 is found</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>has 2 end cert, has CertificatePinner.smali, cleartext traffic permitted for domain</t>
+  </si>
+  <si>
+    <t>has CertificatePinner.smali, has 2 cert file including root, default network security config,</t>
+  </si>
+  <si>
+    <t>using only http</t>
+  </si>
+  <si>
+    <t>has CertificatePinner.smali, has 10 sha256 on networking/l.smali same file containing of okhttp, cleartext not permitted for dimains except system</t>
+  </si>
+  <si>
+    <t>has CertificatePinner.smali and CertificatePinner.kt</t>
+  </si>
+  <si>
+    <t>has 2 cert file includiing root, has "Certificate pinning failure!" string, default security config, has all possible TLS handshake combination as string</t>
+  </si>
+  <si>
+    <t>defalt cecurity config, has string "Certificate pinning failure!", has cert factory and 9 end cert</t>
   </si>
 </sst>
 </file>
@@ -338,14 +356,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,8 +583,8 @@
   </sheetPr>
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -743,7 +760,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
@@ -779,48 +796,84 @@
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">

--- a/Findings/Findings.xlsx
+++ b/Findings/Findings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\TLS-pinning-analysis-android\Findings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD81DD8-BD45-46D2-B780-DFBA1331F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5D0A9-490E-49F1-B67D-7100C65E59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="পত্রক1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>1 is found</t>
   </si>
@@ -294,13 +294,16 @@
   </si>
   <si>
     <t>defalt cecurity config, has string "Certificate pinning failure!", has cert factory and 9 end cert</t>
+  </si>
+  <si>
+    <t>6. Facebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,8 +326,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +360,16 @@
         <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,18 +380,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +614,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -596,17 +629,17 @@
     <col min="6" max="6" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -620,12 +653,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,12 +672,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -661,7 +694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -681,7 +714,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
@@ -698,18 +732,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
@@ -717,13 +755,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
@@ -731,13 +772,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>22</v>
       </c>
@@ -745,13 +789,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>24</v>
       </c>
@@ -759,13 +807,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>26</v>
       </c>
@@ -773,13 +825,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
@@ -787,18 +842,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
@@ -806,13 +865,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
@@ -820,13 +883,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>35</v>
       </c>
@@ -834,13 +901,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
@@ -848,13 +919,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>39</v>
       </c>
@@ -862,13 +936,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
@@ -876,21 +953,24 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>44</v>
       </c>
@@ -898,13 +978,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>46</v>
       </c>
@@ -912,13 +996,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>48</v>
       </c>
@@ -926,13 +1014,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>50</v>
       </c>
@@ -940,13 +1032,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
       <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>52</v>
       </c>
@@ -954,21 +1050,36 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
       <c r="B48" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>55</v>
       </c>
@@ -976,13 +1087,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>57</v>
       </c>
@@ -990,13 +1104,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>59</v>
       </c>
@@ -1004,13 +1122,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>61</v>
       </c>
@@ -1018,7 +1140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
     </row>
   </sheetData>

--- a/Findings/Findings.xlsx
+++ b/Findings/Findings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\TLS-pinning-analysis-android\Findings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5D0A9-490E-49F1-B67D-7100C65E59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19990094-9744-4A98-807E-D14EFE2C6CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>1 is found</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>6. Facebook</t>
+  </si>
+  <si>
+    <t>Green means unpinnable</t>
   </si>
 </sst>
 </file>
@@ -616,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -635,6 +638,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -654,6 +660,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -673,6 +682,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -733,6 +745,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
@@ -843,6 +858,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
@@ -957,6 +975,9 @@
       <c r="B36" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
       <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
@@ -1065,6 +1086,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
       <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
